--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,97 +22,145 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>166019</t>
+  </si>
+  <si>
+    <t>090018</t>
+  </si>
+  <si>
+    <t>001300</t>
+  </si>
+  <si>
+    <t>001301</t>
+  </si>
+  <si>
+    <t>090010</t>
+  </si>
+  <si>
+    <t>515180</t>
+  </si>
+  <si>
+    <t>004235</t>
+  </si>
+  <si>
+    <t>004848</t>
+  </si>
+  <si>
+    <t>515080</t>
+  </si>
+  <si>
     <t>001887</t>
   </si>
   <si>
-    <t>166019</t>
-  </si>
-  <si>
-    <t>004235</t>
-  </si>
-  <si>
-    <t>090018</t>
+    <t>002258</t>
   </si>
   <si>
     <t>512040</t>
   </si>
   <si>
-    <t>001300</t>
-  </si>
-  <si>
-    <t>001301</t>
-  </si>
-  <si>
-    <t>515080</t>
-  </si>
-  <si>
-    <t>515180</t>
+    <t>007801</t>
   </si>
   <si>
     <t>515890</t>
   </si>
   <si>
-    <t>090010</t>
-  </si>
-  <si>
-    <t>007801</t>
-  </si>
-  <si>
-    <t>002258</t>
-  </si>
-  <si>
-    <t>004848</t>
+    <t>中欧价值智选回报混合A</t>
+  </si>
+  <si>
+    <t>大成新锐产业混合</t>
+  </si>
+  <si>
+    <t>大成睿景灵活配置混合A</t>
+  </si>
+  <si>
+    <t>大成睿景灵活配置混合C</t>
+  </si>
+  <si>
+    <t>大成中证红利指数A</t>
+  </si>
+  <si>
+    <t>易方达中证红利ETF</t>
+  </si>
+  <si>
+    <t>中欧价值智选回报混合C</t>
+  </si>
+  <si>
+    <t>中欧睿泓定期开放灵活配置混合</t>
+  </si>
+  <si>
+    <t>招商中证红利ETF</t>
   </si>
   <si>
     <t>中欧价值智选回报混合E</t>
   </si>
   <si>
-    <t>中欧价值智选回报混合A</t>
-  </si>
-  <si>
-    <t>中欧价值智选回报混合C</t>
-  </si>
-  <si>
-    <t>大成新锐产业混合</t>
+    <t>大成国企改革灵活配置混合</t>
   </si>
   <si>
     <t>富国中证价值ETF</t>
   </si>
   <si>
-    <t>大成睿景灵活配置混合A</t>
-  </si>
-  <si>
-    <t>大成睿景灵活配置混合C</t>
-  </si>
-  <si>
-    <t>招商中证红利ETF</t>
-  </si>
-  <si>
-    <t>易方达中证红利ETF</t>
+    <t>大成中证红利指数C</t>
   </si>
   <si>
     <t>博时中证红利ETF</t>
   </si>
   <si>
-    <t>大成中证红利指数A</t>
-  </si>
-  <si>
-    <t>大成中证红利指数C</t>
-  </si>
-  <si>
-    <t>大成国企改革灵活配置混合</t>
-  </si>
-  <si>
-    <t>中欧睿泓定期开放灵活配置混合</t>
+    <t>38.31</t>
+  </si>
+  <si>
+    <t>21.78</t>
+  </si>
+  <si>
+    <t>18.33</t>
+  </si>
+  <si>
+    <t>7.83</t>
+  </si>
+  <si>
+    <t>23.70</t>
+  </si>
+  <si>
+    <t>11.80</t>
+  </si>
+  <si>
+    <t>5.79</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.24</t>
   </si>
   <si>
     <t>90.63</t>
@@ -121,52 +169,94 @@
     <t>88.66</t>
   </si>
   <si>
+    <t>87.91</t>
+  </si>
+  <si>
+    <t>94.10</t>
+  </si>
+  <si>
+    <t>99.03</t>
+  </si>
+  <si>
+    <t>56.92</t>
+  </si>
+  <si>
+    <t>99.24</t>
+  </si>
+  <si>
+    <t>91.27</t>
+  </si>
+  <si>
     <t>98.57</t>
   </si>
   <si>
-    <t>87.91</t>
-  </si>
-  <si>
-    <t>99.24</t>
-  </si>
-  <si>
-    <t>99.03</t>
-  </si>
-  <si>
     <t>98.94</t>
   </si>
   <si>
-    <t>94.10</t>
-  </si>
-  <si>
-    <t>91.27</t>
-  </si>
-  <si>
-    <t>56.92</t>
-  </si>
-  <si>
     <t>3.02</t>
   </si>
   <si>
     <t>4.95</t>
   </si>
   <si>
+    <t>5.84</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>8.88</t>
+  </si>
+  <si>
     <t>1.30</t>
   </si>
   <si>
-    <t>5.84</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>8.88</t>
-  </si>
-  <si>
-    <t>2.96</t>
+    <t>1.1570</t>
+  </si>
+  <si>
+    <t>1.0781</t>
+  </si>
+  <si>
+    <t>1.0705</t>
+  </si>
+  <si>
+    <t>0.4573</t>
+  </si>
+  <si>
+    <t>0.3531</t>
+  </si>
+  <si>
+    <t>0.1853</t>
+  </si>
+  <si>
+    <t>0.1749</t>
+  </si>
+  <si>
+    <t>0.0983</t>
+  </si>
+  <si>
+    <t>0.0813</t>
+  </si>
+  <si>
+    <t>0.0743</t>
+  </si>
+  <si>
+    <t>0.0595</t>
+  </si>
+  <si>
+    <t>0.0244</t>
+  </si>
+  <si>
+    <t>0.0079</t>
+  </si>
+  <si>
+    <t>0.0038</t>
   </si>
 </sst>
 </file>
@@ -524,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,285 +636,375 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1404</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7710</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2664,4 +2665,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2673,7 +2674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,17 +2685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2704,14 +2725,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.45</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2720,14 +2763,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.59</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2736,13 +2801,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2679</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3186,7 +3187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3197,17 +3198,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3217,14 +3238,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.31</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3233,14 +3276,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.45</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3249,14 +3314,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.59</v>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3265,13 +3352,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3547,7 +3548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3558,17 +3559,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3578,14 +3599,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3594,14 +3637,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.31</v>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3610,14 +3675,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.45</v>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3626,14 +3713,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.59</v>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3642,13 +3751,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,585 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1570</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0781</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0705</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4573</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.45</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3531</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.59</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1853</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1749</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>56.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0813</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002258</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1044,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1095,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>010826</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>大成产业趋势混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.13</t>
+          <t>14.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0923</t>
+          <t>0.6208</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1133,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>010827</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>大成产业趋势混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.34</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.25</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1136</t>
+          <t>0.2266</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1171,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>95.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7054</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1209,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010826</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成产业趋势混合A</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.44</t>
+          <t>93.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0098</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1247,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>003797</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>华安新瑞利灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7435</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1285,643 +829,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>003798</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>华安新瑞利灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.44</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.25</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5430</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>28.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5112</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2395</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1353</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1014</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>58.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0966</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002258</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0830</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010827</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成产业趋势混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.35</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.35</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1936,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1997,26 +933,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>130.97</t>
+          <t>125.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.1995</t>
+          <t>4.6894</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2035,26 +971,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.39</t>
+          <t>67.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3064</t>
+          <t>2.2602</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2063,36 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010826</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成产业趋势混合A</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>27.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.96</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2860</t>
+          <t>0.9202</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2101,36 +1037,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.12</t>
+          <t>17.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2498</t>
+          <t>0.7555</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2139,36 +1075,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>010826</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>大成产业趋势混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.92</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1404</t>
+          <t>0.3206</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2177,36 +1113,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.27</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0917</t>
+          <t>0.1571</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2215,36 +1151,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>010827</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>大成产业趋势混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7710</t>
+          <t>0.0722</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2253,416 +1189,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010827</t>
+          <t>001291</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成产业趋势混合C</t>
+          <t>摩根士丹利华鑫量化多策略股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.96</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3732</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3469</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2218</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>45.11</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1634</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003655</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>信达澳银新财富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0583</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>83.59</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3188,7 +1744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3209,7 +1765,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3249,26 +1805,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.72</t>
+          <t>130.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6894</t>
+          <t>5.1995</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3287,26 +1843,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.47</t>
+          <t>53.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2602</t>
+          <t>2.3064</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3315,36 +1871,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>010826</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>大成产业趋势混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>89.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9202</t>
+          <t>1.2860</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3353,36 +1909,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.17</t>
+          <t>63.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7555</t>
+          <t>1.2498</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3391,36 +1947,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010826</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成产业趋势混合A</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3206</t>
+          <t>1.1404</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3429,36 +1985,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>25.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.99</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1571</t>
+          <t>1.0917</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3467,36 +2023,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010827</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成产业趋势混合C</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0722</t>
+          <t>0.7710</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -3505,36 +2061,416 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001291</t>
+          <t>010827</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫量化多策略股票</t>
+          <t>大成产业趋势混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>89.96</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.3732</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3569,7 +2505,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3599,36 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010826</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成产业趋势混合A</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.11</t>
+          <t>42.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>89.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6208</t>
+          <t>3.0923</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3637,36 +2573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010827</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成产业趋势混合C</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>88.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2266</t>
+          <t>2.1136</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3675,36 +2611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.52</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>1.7054</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3713,36 +2649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>010826</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>大成产业趋势混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>14.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>79.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>1.0098</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3751,36 +2687,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003797</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安新瑞利灵活配置混合A</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.7435</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3789,35 +2725,643 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003798</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安新瑞利灵活配置混合C</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>22.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>88.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.5430</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3832,128 +3376,584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>9.210000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
-        <v>12.31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.83</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>9.210000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>12.31</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>14.45</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>10.59</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.83</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3643</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6949</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2478,7 +3083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3370,7 +3975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002088-鲁阳节能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>8.210000000000001</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>12.31</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>14.45</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>10.59</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.83</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6476</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2343,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3083,7 +3726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3975,7 +4618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
